--- a/Code/Results/Cases/Case_1_83/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_83/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.01785586898592</v>
+        <v>10.25453685469846</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.813253840943574</v>
+        <v>9.917401077243495</v>
       </c>
       <c r="E2">
-        <v>6.145798952155049</v>
+        <v>13.40927253346448</v>
       </c>
       <c r="F2">
-        <v>19.0461258913183</v>
+        <v>25.98016527116568</v>
       </c>
       <c r="G2">
-        <v>25.62701682761841</v>
+        <v>24.73266510721236</v>
       </c>
       <c r="H2">
-        <v>8.083487954975089</v>
+        <v>12.89130559803428</v>
       </c>
       <c r="I2">
-        <v>33.22245009438362</v>
+        <v>24.25145179729221</v>
       </c>
       <c r="J2">
-        <v>4.815776692228068</v>
+        <v>9.546370430325585</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>36.96337450305187</v>
+        <v>25.8758476722981</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.28535065902451</v>
+        <v>19.14433683646001</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.03089413042725</v>
+        <v>9.787284860100545</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.968313733980404</v>
+        <v>9.98024437576033</v>
       </c>
       <c r="E3">
-        <v>6.467332787780938</v>
+        <v>13.52716516042191</v>
       </c>
       <c r="F3">
-        <v>18.35189326641976</v>
+        <v>26.01585284262192</v>
       </c>
       <c r="G3">
-        <v>24.0926981708715</v>
+        <v>24.51050607050577</v>
       </c>
       <c r="H3">
-        <v>7.943171545475002</v>
+        <v>12.92163636755904</v>
       </c>
       <c r="I3">
-        <v>31.33157249530976</v>
+        <v>23.49559474754147</v>
       </c>
       <c r="J3">
-        <v>4.971619177464998</v>
+        <v>9.607178246877176</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>34.56158248004423</v>
+        <v>24.72276231375537</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.75181472765265</v>
+        <v>19.14645055845156</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.39032567033433</v>
+        <v>9.487623971978266</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.067398025540506</v>
+        <v>10.02081962214527</v>
       </c>
       <c r="E4">
-        <v>6.670759602775036</v>
+        <v>13.60312101450734</v>
       </c>
       <c r="F4">
-        <v>17.94194768433769</v>
+        <v>26.04717159191241</v>
       </c>
       <c r="G4">
-        <v>23.13513069660777</v>
+        <v>24.38466145936372</v>
       </c>
       <c r="H4">
-        <v>7.864404996632311</v>
+        <v>12.94325875319986</v>
       </c>
       <c r="I4">
-        <v>30.12482317041367</v>
+        <v>23.02465761465173</v>
       </c>
       <c r="J4">
-        <v>5.070936104483165</v>
+        <v>9.646448780127299</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>33.00466253996577</v>
+        <v>23.98281939100087</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.43212793262886</v>
+        <v>19.15389177293605</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.12056546710867</v>
+        <v>9.362416834093104</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.108730477571576</v>
+        <v>10.03785549095546</v>
       </c>
       <c r="E5">
-        <v>6.755162783499951</v>
+        <v>13.63497352494129</v>
       </c>
       <c r="F5">
-        <v>17.77917020163787</v>
+        <v>26.06228722265149</v>
       </c>
       <c r="G5">
-        <v>22.74149474330733</v>
+        <v>24.33609202868887</v>
       </c>
       <c r="H5">
-        <v>7.834137213800786</v>
+        <v>12.95282184824544</v>
       </c>
       <c r="I5">
-        <v>29.62198342296806</v>
+        <v>22.83136587838137</v>
       </c>
       <c r="J5">
-        <v>5.112303888726804</v>
+        <v>9.662939282163412</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>32.34760023627852</v>
+        <v>23.67354116590206</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.30399517396646</v>
+        <v>19.15846488050084</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.07524441760705</v>
+        <v>9.34144327770055</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.115650856898634</v>
+        <v>10.04071457813833</v>
       </c>
       <c r="E6">
-        <v>6.76926876312426</v>
+        <v>13.64031703019994</v>
       </c>
       <c r="F6">
-        <v>17.7524044894044</v>
+        <v>26.06493888478447</v>
       </c>
       <c r="G6">
-        <v>22.67594118249986</v>
+        <v>24.32819252226616</v>
       </c>
       <c r="H6">
-        <v>7.829220879422224</v>
+        <v>12.95445512727168</v>
       </c>
       <c r="I6">
-        <v>29.53783251108141</v>
+        <v>22.79919688291642</v>
       </c>
       <c r="J6">
-        <v>5.119226631815294</v>
+        <v>9.665706988823818</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>32.23712863941815</v>
+        <v>23.62172722070081</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.28285277029376</v>
+        <v>19.15931715705664</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.38672294408242</v>
+        <v>9.485947739076757</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.067951607041844</v>
+        <v>10.02104734356728</v>
       </c>
       <c r="E7">
-        <v>6.671891800608217</v>
+        <v>13.60354694192532</v>
       </c>
       <c r="F7">
-        <v>17.93973486051991</v>
+        <v>26.04736593698521</v>
       </c>
       <c r="G7">
-        <v>23.12983512564528</v>
+        <v>24.38399537868633</v>
       </c>
       <c r="H7">
-        <v>7.863989425396242</v>
+        <v>12.94338468372297</v>
       </c>
       <c r="I7">
-        <v>30.11808592314283</v>
+        <v>23.02205594154593</v>
       </c>
       <c r="J7">
-        <v>5.071490399299942</v>
+        <v>9.646669201803519</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>32.99589277054261</v>
+        <v>23.97867930564853</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.4303910096543</v>
+        <v>19.15394721532058</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.68470525583357</v>
+        <v>10.09614276322378</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.865900428562027</v>
+        <v>9.938657144880827</v>
       </c>
       <c r="E8">
-        <v>6.255412694286304</v>
+        <v>13.44918252087398</v>
       </c>
       <c r="F8">
-        <v>18.80347553025897</v>
+        <v>25.99051109722327</v>
       </c>
       <c r="G8">
-        <v>25.10145240530021</v>
+        <v>24.65390915113088</v>
       </c>
       <c r="H8">
-        <v>8.033558701342518</v>
+        <v>12.9011397911988</v>
       </c>
       <c r="I8">
-        <v>32.58019178803216</v>
+        <v>23.99244694396022</v>
       </c>
       <c r="J8">
-        <v>4.868746195100844</v>
+        <v>9.566936133821336</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>36.15065516559356</v>
+        <v>25.48505250624957</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.09983731260536</v>
+        <v>19.14378851558847</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.95757689943004</v>
+        <v>11.18716782704496</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.501597485489222</v>
+        <v>9.792830653800857</v>
       </c>
       <c r="E9">
-        <v>5.487022565551996</v>
+        <v>13.17468674260087</v>
       </c>
       <c r="F9">
-        <v>20.61895016908927</v>
+        <v>25.95413147386733</v>
       </c>
       <c r="G9">
-        <v>28.82914557615931</v>
+        <v>25.26414830156611</v>
       </c>
       <c r="H9">
-        <v>8.425654510140671</v>
+        <v>12.84219451920232</v>
       </c>
       <c r="I9">
-        <v>37.03176967061265</v>
+        <v>25.82751908155621</v>
       </c>
       <c r="J9">
-        <v>4.501009120448606</v>
+        <v>9.425879579637506</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>41.67094331315147</v>
+        <v>28.1750978223021</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.46901180229047</v>
+        <v>19.17273841404601</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.46440969255204</v>
+        <v>11.91973579520242</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.255509457739078</v>
+        <v>9.69522637017756</v>
       </c>
       <c r="E10">
-        <v>4.954047928268995</v>
+        <v>12.99006049213558</v>
       </c>
       <c r="F10">
-        <v>22.01728055735535</v>
+        <v>25.97373273387927</v>
       </c>
       <c r="G10">
-        <v>31.56809583695</v>
+        <v>25.75756107637644</v>
       </c>
       <c r="H10">
-        <v>8.751033152001082</v>
+        <v>12.81358269592451</v>
       </c>
       <c r="I10">
-        <v>40.06031688865034</v>
+        <v>27.11796810969694</v>
       </c>
       <c r="J10">
-        <v>4.251030583296616</v>
+        <v>9.331505259525088</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>45.29866554623235</v>
+        <v>29.97909531598403</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.50188240190391</v>
+        <v>19.2238924956592</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.11528360414803</v>
+        <v>12.23729015221987</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.148895064694429</v>
+        <v>9.652881090273716</v>
       </c>
       <c r="E11">
-        <v>4.719419068294129</v>
+        <v>12.90973824979282</v>
       </c>
       <c r="F11">
-        <v>22.66575336993439</v>
+        <v>25.99278696897225</v>
       </c>
       <c r="G11">
-        <v>32.7946671734957</v>
+        <v>25.99080033209485</v>
       </c>
       <c r="H11">
-        <v>8.907305961448307</v>
+        <v>12.80378087275235</v>
       </c>
       <c r="I11">
-        <v>41.38428200589784</v>
+        <v>27.68952754822376</v>
       </c>
       <c r="J11">
-        <v>4.142347429336652</v>
+        <v>9.290568714630906</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>46.85751474332057</v>
+        <v>30.76055110595963</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.97642046783865</v>
+        <v>19.25364499707432</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.35684788686088</v>
+        <v>12.3552359802385</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.109362582625362</v>
+        <v>9.637140701295785</v>
       </c>
       <c r="E12">
-        <v>4.631836511814844</v>
+        <v>12.87984700987434</v>
       </c>
       <c r="F12">
-        <v>22.9129872205149</v>
+        <v>26.00146327006744</v>
       </c>
       <c r="G12">
-        <v>33.25484098907773</v>
+        <v>26.08029485849865</v>
       </c>
       <c r="H12">
-        <v>8.967679586624643</v>
+        <v>12.80053290812302</v>
       </c>
       <c r="I12">
-        <v>41.87787171639575</v>
+        <v>27.90352491078817</v>
       </c>
       <c r="J12">
-        <v>4.101990546824991</v>
+        <v>9.275352984595015</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>47.43478900011628</v>
+        <v>31.05071543406407</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.15671910336944</v>
+        <v>19.26584068286281</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.30503984574904</v>
+        <v>12.32993743241465</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.117837897115717</v>
+        <v>9.640517573321947</v>
       </c>
       <c r="E13">
-        <v>4.650639739168435</v>
+        <v>12.8862613028028</v>
       </c>
       <c r="F13">
-        <v>22.8596680052798</v>
+        <v>25.99952967222847</v>
       </c>
       <c r="G13">
-        <v>33.15592440308065</v>
+        <v>26.06096996876369</v>
       </c>
       <c r="H13">
-        <v>8.954623674267568</v>
+        <v>12.80121176535435</v>
       </c>
       <c r="I13">
-        <v>41.7719139316504</v>
+        <v>27.85754843311305</v>
       </c>
       <c r="J13">
-        <v>4.110645179289291</v>
+        <v>9.278617254501647</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>47.31104014057897</v>
+        <v>30.98848104427516</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.11786268851273</v>
+        <v>19.26317286720039</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.13525519784933</v>
+        <v>12.24704006978876</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.145625386791353</v>
+        <v>9.651580213790592</v>
       </c>
       <c r="E14">
-        <v>4.712187189292577</v>
+        <v>12.9072685679988</v>
       </c>
       <c r="F14">
-        <v>22.68606044751515</v>
+        <v>25.99347148463165</v>
       </c>
       <c r="G14">
-        <v>32.83261173395488</v>
+        <v>25.9981401453579</v>
       </c>
       <c r="H14">
-        <v>8.912248900187823</v>
+        <v>12.80350435748751</v>
       </c>
       <c r="I14">
-        <v>41.42504565768427</v>
+        <v>27.70718328464474</v>
       </c>
       <c r="J14">
-        <v>4.139010730205187</v>
+        <v>9.289311178946265</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>46.9052678476357</v>
+        <v>30.78453907223427</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.9912420123637</v>
+        <v>19.25462974627964</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.03062015594591</v>
+        <v>12.19596156520551</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.162757892715454</v>
+        <v>9.658394777785427</v>
       </c>
       <c r="E15">
-        <v>4.750056927966648</v>
+        <v>12.92020444297663</v>
       </c>
       <c r="F15">
-        <v>22.57993584363881</v>
+        <v>25.98995097725521</v>
       </c>
       <c r="G15">
-        <v>32.63401531263555</v>
+        <v>25.95980492949553</v>
       </c>
       <c r="H15">
-        <v>8.886449235531042</v>
+        <v>12.80496907794584</v>
       </c>
       <c r="I15">
-        <v>41.21156692163225</v>
+        <v>27.61475657993344</v>
       </c>
       <c r="J15">
-        <v>4.156492070835284</v>
+        <v>9.295898745531332</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>46.65502757016848</v>
+        <v>30.65886591818147</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.913759816284</v>
+        <v>19.24951771410526</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.42118306626142</v>
+        <v>11.89866272742029</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.262590149985009</v>
+        <v>9.698035032122952</v>
       </c>
       <c r="E16">
-        <v>4.969549656392245</v>
+        <v>12.99538332046924</v>
       </c>
       <c r="F16">
-        <v>21.9751402854964</v>
+        <v>25.97269179921721</v>
       </c>
       <c r="G16">
-        <v>31.48733097383342</v>
+        <v>25.74248735450391</v>
       </c>
       <c r="H16">
-        <v>8.740987273557039</v>
+        <v>12.81428808270753</v>
       </c>
       <c r="I16">
-        <v>39.97270685094158</v>
+        <v>27.08028510374492</v>
       </c>
       <c r="J16">
-        <v>4.258240580868016</v>
+        <v>9.334220630554608</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>45.19496141795941</v>
+        <v>29.92722592227451</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.47095770179338</v>
+        <v>19.22207830723065</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.03849925161264</v>
+        <v>11.71222255569353</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.325246816691973</v>
+        <v>9.722878966002881</v>
       </c>
       <c r="E17">
-        <v>5.10628801959838</v>
+        <v>13.04244043006747</v>
       </c>
       <c r="F17">
-        <v>21.60719875065109</v>
+        <v>25.96470316118587</v>
       </c>
       <c r="G17">
-        <v>30.77615321160116</v>
+        <v>25.61135570574974</v>
       </c>
       <c r="H17">
-        <v>8.653872193445402</v>
+        <v>12.82082935641123</v>
       </c>
       <c r="I17">
-        <v>39.19889957053705</v>
+        <v>26.74828088106421</v>
       </c>
       <c r="J17">
-        <v>4.321997021315307</v>
+        <v>9.358240204960957</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>44.27592515186811</v>
+        <v>29.46825790757741</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.20045275796989</v>
+        <v>19.20690362484181</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.81512938255646</v>
+        <v>11.60351212794432</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.361781890140377</v>
+        <v>9.737362044807362</v>
       </c>
       <c r="E18">
-        <v>5.185661408888318</v>
+        <v>13.069851534176</v>
       </c>
       <c r="F18">
-        <v>21.39673690976169</v>
+        <v>25.96106243874606</v>
       </c>
       <c r="G18">
-        <v>30.36425442127216</v>
+        <v>25.5367646324955</v>
       </c>
       <c r="H18">
-        <v>8.604542514794288</v>
+        <v>12.82489414160925</v>
       </c>
       <c r="I18">
-        <v>38.748767341773</v>
+        <v>26.55587580389773</v>
       </c>
       <c r="J18">
-        <v>4.359136293535537</v>
+        <v>9.372243435303393</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>43.73870744870914</v>
+        <v>29.20058841996738</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.04530874411409</v>
+        <v>19.19878596097469</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.73893827762225</v>
+        <v>11.56645293568122</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.374235362957196</v>
+        <v>9.742299023265108</v>
       </c>
       <c r="E19">
-        <v>5.212657032722158</v>
+        <v>13.07919179573613</v>
       </c>
       <c r="F19">
-        <v>21.32568260003503</v>
+        <v>25.95999349822867</v>
       </c>
       <c r="G19">
-        <v>30.2243031835455</v>
+        <v>25.51165507198945</v>
       </c>
       <c r="H19">
-        <v>8.587973443030297</v>
+        <v>12.82632229552897</v>
       </c>
       <c r="I19">
-        <v>38.59549345451748</v>
+        <v>26.4904895024457</v>
       </c>
       <c r="J19">
-        <v>4.371789438873684</v>
+        <v>9.377016969330356</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>43.55533209923514</v>
+        <v>29.10933155943864</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.9928583717271</v>
+        <v>19.19614236974913</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.07957355369454</v>
+        <v>11.73222246210769</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.318525031148376</v>
+        <v>9.720214265002539</v>
       </c>
       <c r="E20">
-        <v>5.091656105757498</v>
+        <v>13.03739541847896</v>
       </c>
       <c r="F20">
-        <v>21.64624670764068</v>
+        <v>25.96545478744876</v>
       </c>
       <c r="G20">
-        <v>30.85215397604101</v>
+        <v>25.62522939697851</v>
       </c>
       <c r="H20">
-        <v>8.663065301257349</v>
+        <v>12.82010171508478</v>
       </c>
       <c r="I20">
-        <v>39.28179667592902</v>
+        <v>26.78377448402868</v>
       </c>
       <c r="J20">
-        <v>4.315161090558532</v>
+        <v>9.355663848858194</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>44.37464864291773</v>
+        <v>29.51749797626599</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.22920319273712</v>
+        <v>19.20845583823905</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.18525769767177</v>
+        <v>12.2714519360971</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.137440059426079</v>
+        <v>9.648322851575415</v>
       </c>
       <c r="E21">
-        <v>4.694073409310395</v>
+        <v>12.90108399097948</v>
       </c>
       <c r="F21">
-        <v>22.73700852559612</v>
+        <v>25.99521125852484</v>
       </c>
       <c r="G21">
-        <v>32.92769265136879</v>
+        <v>26.01656372176711</v>
       </c>
       <c r="H21">
-        <v>8.924662847797652</v>
+        <v>12.8028183690301</v>
       </c>
       <c r="I21">
-        <v>41.52714016460667</v>
+        <v>27.75141698525725</v>
       </c>
       <c r="J21">
-        <v>4.130656698490887</v>
+        <v>9.286162356986875</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>47.02480561263159</v>
+        <v>30.84459884260012</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.02841769767943</v>
+        <v>19.25711388493515</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.87931571897685</v>
+        <v>12.61041712741359</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.024034076107845</v>
+        <v>9.603055949783359</v>
       </c>
       <c r="E22">
-        <v>4.441726358448865</v>
+        <v>12.81505609028351</v>
       </c>
       <c r="F22">
-        <v>23.45960051006848</v>
+        <v>26.02317396376178</v>
       </c>
       <c r="G22">
-        <v>34.2591606256876</v>
+        <v>26.27911009383696</v>
       </c>
       <c r="H22">
-        <v>9.102611379992545</v>
+        <v>12.79422652993699</v>
       </c>
       <c r="I22">
-        <v>42.94934218038703</v>
+        <v>28.36952289460204</v>
       </c>
       <c r="J22">
-        <v>4.014779545372506</v>
+        <v>9.242406089882566</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>48.68095795179799</v>
+        <v>31.67834415120953</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.65542183031238</v>
+        <v>19.29432760401874</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.51147477601907</v>
+        <v>12.43074966401699</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.08407983152744</v>
+        <v>9.627058753611992</v>
       </c>
       <c r="E23">
-        <v>4.575658715040971</v>
+        <v>12.86069150447645</v>
       </c>
       <c r="F23">
-        <v>23.07307712000929</v>
+        <v>26.00747009557275</v>
       </c>
       <c r="G23">
-        <v>33.55079186919699</v>
+        <v>26.13839388128558</v>
       </c>
       <c r="H23">
-        <v>9.006994922703608</v>
+        <v>12.79856427399851</v>
       </c>
       <c r="I23">
-        <v>42.19442891542813</v>
+        <v>28.04100199104799</v>
       </c>
       <c r="J23">
-        <v>4.076164581124324</v>
+        <v>9.265607360980081</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>47.80394050857057</v>
+        <v>31.23646659794303</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.2818003644749</v>
+        <v>19.27397203543869</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.06101433188835</v>
+        <v>11.72318524601403</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.321562358069369</v>
+        <v>9.721418353351877</v>
       </c>
       <c r="E24">
-        <v>5.098268834404697</v>
+        <v>13.03967515486932</v>
       </c>
       <c r="F24">
-        <v>21.62858977667867</v>
+        <v>25.9651120118191</v>
       </c>
       <c r="G24">
-        <v>30.81780348053393</v>
+        <v>25.6189546076897</v>
       </c>
       <c r="H24">
-        <v>8.658906749529599</v>
+        <v>12.82042973449486</v>
       </c>
       <c r="I24">
-        <v>39.2443352751208</v>
+        <v>26.76773257959455</v>
       </c>
       <c r="J24">
-        <v>4.318250110098461</v>
+        <v>9.356828014858792</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>44.33004333195071</v>
+        <v>29.4952483763353</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.21620395397537</v>
+        <v>19.20775219318957</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.37158274260299</v>
+        <v>10.90385125002249</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.596547681746818</v>
+        <v>9.830601873805893</v>
       </c>
       <c r="E25">
-        <v>5.689575322775115</v>
+        <v>13.24594076963291</v>
       </c>
       <c r="F25">
-        <v>20.11584141802202</v>
+        <v>25.95586908022578</v>
       </c>
       <c r="G25">
-        <v>27.83736307543419</v>
+        <v>25.09081731789951</v>
       </c>
       <c r="H25">
-        <v>8.313087078097611</v>
+        <v>12.85556860590771</v>
       </c>
       <c r="I25">
-        <v>35.86938025689221</v>
+        <v>25.34014337090489</v>
       </c>
       <c r="J25">
-        <v>4.597123859168619</v>
+        <v>9.462408222972616</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>40.2531900544506</v>
+        <v>27.47693853303905</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.09340706723797</v>
+        <v>19.15966005196335</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_83/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_83/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.25453685469846</v>
+        <v>15.01785586898595</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.917401077243495</v>
+        <v>4.81325384094363</v>
       </c>
       <c r="E2">
-        <v>13.40927253346448</v>
+        <v>6.145798952154921</v>
       </c>
       <c r="F2">
-        <v>25.98016527116568</v>
+        <v>19.04612589131826</v>
       </c>
       <c r="G2">
-        <v>24.73266510721236</v>
+        <v>25.62701682761838</v>
       </c>
       <c r="H2">
-        <v>12.89130559803428</v>
+        <v>8.083487954975089</v>
       </c>
       <c r="I2">
-        <v>24.25145179729221</v>
+        <v>33.22245009438357</v>
       </c>
       <c r="J2">
-        <v>9.546370430325585</v>
+        <v>4.815776692227966</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>25.8758476722981</v>
+        <v>36.96337450305188</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.14433683646001</v>
+        <v>14.28535065902449</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.787284860100545</v>
+        <v>14.03089413042727</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.98024437576033</v>
+        <v>4.96831373398021</v>
       </c>
       <c r="E3">
-        <v>13.52716516042191</v>
+        <v>6.467332787780807</v>
       </c>
       <c r="F3">
-        <v>26.01585284262192</v>
+        <v>18.3518932664197</v>
       </c>
       <c r="G3">
-        <v>24.51050607050577</v>
+        <v>24.09269817087146</v>
       </c>
       <c r="H3">
-        <v>12.92163636755904</v>
+        <v>7.943171545475009</v>
       </c>
       <c r="I3">
-        <v>23.49559474754147</v>
+        <v>31.33157249530972</v>
       </c>
       <c r="J3">
-        <v>9.607178246877176</v>
+        <v>4.971619177465028</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>24.72276231375537</v>
+        <v>34.56158248004422</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.14645055845156</v>
+        <v>13.75181472765265</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.487623971978266</v>
+        <v>13.39032567033433</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.02081962214527</v>
+        <v>5.067398025540439</v>
       </c>
       <c r="E4">
-        <v>13.60312101450734</v>
+        <v>6.670759602774972</v>
       </c>
       <c r="F4">
-        <v>26.04717159191241</v>
+        <v>17.94194768433762</v>
       </c>
       <c r="G4">
-        <v>24.38466145936372</v>
+        <v>23.13513069660778</v>
       </c>
       <c r="H4">
-        <v>12.94325875319986</v>
+        <v>7.86440499663226</v>
       </c>
       <c r="I4">
-        <v>23.02465761465173</v>
+        <v>30.12482317041372</v>
       </c>
       <c r="J4">
-        <v>9.646448780127299</v>
+        <v>5.070936104483166</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>23.98281939100087</v>
+        <v>33.00466253996582</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.15389177293605</v>
+        <v>13.43212793262882</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.362416834093104</v>
+        <v>13.12056546710868</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.03785549095546</v>
+        <v>5.108730477571646</v>
       </c>
       <c r="E5">
-        <v>13.63497352494129</v>
+        <v>6.755162783500015</v>
       </c>
       <c r="F5">
-        <v>26.06228722265149</v>
+        <v>17.77917020163787</v>
       </c>
       <c r="G5">
-        <v>24.33609202868887</v>
+        <v>22.74149474330736</v>
       </c>
       <c r="H5">
-        <v>12.95282184824544</v>
+        <v>7.834137213800751</v>
       </c>
       <c r="I5">
-        <v>22.83136587838137</v>
+        <v>29.62198342296797</v>
       </c>
       <c r="J5">
-        <v>9.662939282163412</v>
+        <v>5.112303888726839</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>23.67354116590206</v>
+        <v>32.34760023627845</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.15846488050084</v>
+        <v>13.30399517396646</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.34144327770055</v>
+        <v>13.07524441760706</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.04071457813833</v>
+        <v>5.115650856898444</v>
       </c>
       <c r="E6">
-        <v>13.64031703019994</v>
+        <v>6.769268763124255</v>
       </c>
       <c r="F6">
-        <v>26.06493888478447</v>
+        <v>17.75240448940436</v>
       </c>
       <c r="G6">
-        <v>24.32819252226616</v>
+        <v>22.6759411824999</v>
       </c>
       <c r="H6">
-        <v>12.95445512727168</v>
+        <v>7.82922087942223</v>
       </c>
       <c r="I6">
-        <v>22.79919688291642</v>
+        <v>29.53783251108139</v>
       </c>
       <c r="J6">
-        <v>9.665706988823818</v>
+        <v>5.119226631815422</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>23.62172722070081</v>
+        <v>32.2371286394182</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.15931715705664</v>
+        <v>13.28285277029378</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.485947739076757</v>
+        <v>13.38672294408239</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.02104734356728</v>
+        <v>5.067951607041778</v>
       </c>
       <c r="E7">
-        <v>13.60354694192532</v>
+        <v>6.671891800608215</v>
       </c>
       <c r="F7">
-        <v>26.04736593698521</v>
+        <v>17.93973486051993</v>
       </c>
       <c r="G7">
-        <v>24.38399537868633</v>
+        <v>23.12983512564531</v>
       </c>
       <c r="H7">
-        <v>12.94338468372297</v>
+        <v>7.863989425396237</v>
       </c>
       <c r="I7">
-        <v>23.02205594154593</v>
+        <v>30.11808592314273</v>
       </c>
       <c r="J7">
-        <v>9.646669201803519</v>
+        <v>5.071490399299972</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>23.97867930564853</v>
+        <v>32.99589277054255</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.15394721532058</v>
+        <v>13.43039100965432</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.09614276322378</v>
+        <v>14.68470525583357</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.938657144880827</v>
+        <v>4.865900428561829</v>
       </c>
       <c r="E8">
-        <v>13.44918252087398</v>
+        <v>6.255412694286104</v>
       </c>
       <c r="F8">
-        <v>25.99051109722327</v>
+        <v>18.8034755302589</v>
       </c>
       <c r="G8">
-        <v>24.65390915113088</v>
+        <v>25.10145240530023</v>
       </c>
       <c r="H8">
-        <v>12.9011397911988</v>
+        <v>8.033558701342503</v>
       </c>
       <c r="I8">
-        <v>23.99244694396022</v>
+        <v>32.58019178803206</v>
       </c>
       <c r="J8">
-        <v>9.566936133821336</v>
+        <v>4.868746195100842</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>25.48505250624957</v>
+        <v>36.1506551655935</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.14378851558847</v>
+        <v>14.09983731260533</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.18716782704496</v>
+        <v>16.95757689943007</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.792830653800857</v>
+        <v>4.501597485489228</v>
       </c>
       <c r="E9">
-        <v>13.17468674260087</v>
+        <v>5.487022565551998</v>
       </c>
       <c r="F9">
-        <v>25.95413147386733</v>
+        <v>20.61895016908927</v>
       </c>
       <c r="G9">
-        <v>25.26414830156611</v>
+        <v>28.82914557615928</v>
       </c>
       <c r="H9">
-        <v>12.84219451920232</v>
+        <v>8.425654510140657</v>
       </c>
       <c r="I9">
-        <v>25.82751908155621</v>
+        <v>37.03176967061265</v>
       </c>
       <c r="J9">
-        <v>9.425879579637506</v>
+        <v>4.501009120448576</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>28.1750978223021</v>
+        <v>41.67094331315147</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.17273841404601</v>
+        <v>15.46901180229046</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.91973579520242</v>
+        <v>18.46440969255204</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.69522637017756</v>
+        <v>4.25550945773896</v>
       </c>
       <c r="E10">
-        <v>12.99006049213558</v>
+        <v>4.954047928269001</v>
       </c>
       <c r="F10">
-        <v>25.97373273387927</v>
+        <v>22.01728055735531</v>
       </c>
       <c r="G10">
-        <v>25.75756107637644</v>
+        <v>31.56809583694995</v>
       </c>
       <c r="H10">
-        <v>12.81358269592451</v>
+        <v>8.751033152001058</v>
       </c>
       <c r="I10">
-        <v>27.11796810969694</v>
+        <v>40.06031688865046</v>
       </c>
       <c r="J10">
-        <v>9.331505259525088</v>
+        <v>4.251030583296592</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>29.97909531598403</v>
+        <v>45.29866554623243</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.2238924956592</v>
+        <v>16.50188240190387</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.23729015221987</v>
+        <v>19.11528360414799</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.652881090273716</v>
+        <v>4.148895064694296</v>
       </c>
       <c r="E11">
-        <v>12.90973824979282</v>
+        <v>4.719419068294056</v>
       </c>
       <c r="F11">
-        <v>25.99278696897225</v>
+        <v>22.66575336993439</v>
       </c>
       <c r="G11">
-        <v>25.99080033209485</v>
+        <v>32.79466717349583</v>
       </c>
       <c r="H11">
-        <v>12.80378087275235</v>
+        <v>8.907305961448287</v>
       </c>
       <c r="I11">
-        <v>27.68952754822376</v>
+        <v>41.38428200589775</v>
       </c>
       <c r="J11">
-        <v>9.290568714630906</v>
+        <v>4.142347429336669</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>30.76055110595963</v>
+        <v>46.85751474332049</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.25364499707432</v>
+        <v>16.97642046783866</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.3552359802385</v>
+        <v>19.35684788686095</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.637140701295785</v>
+        <v>4.109362582625308</v>
       </c>
       <c r="E12">
-        <v>12.87984700987434</v>
+        <v>4.631836511814829</v>
       </c>
       <c r="F12">
-        <v>26.00146327006744</v>
+        <v>22.91298722051493</v>
       </c>
       <c r="G12">
-        <v>26.08029485849865</v>
+        <v>33.25484098907776</v>
       </c>
       <c r="H12">
-        <v>12.80053290812302</v>
+        <v>8.967679586624607</v>
       </c>
       <c r="I12">
-        <v>27.90352491078817</v>
+        <v>41.87787171639557</v>
       </c>
       <c r="J12">
-        <v>9.275352984595015</v>
+        <v>4.101990546825041</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>31.05071543406407</v>
+        <v>47.43478900011623</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.26584068286281</v>
+        <v>17.15671910336946</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.32993743241465</v>
+        <v>19.30503984574906</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.640517573321947</v>
+        <v>4.117837897115717</v>
       </c>
       <c r="E13">
-        <v>12.8862613028028</v>
+        <v>4.650639739168444</v>
       </c>
       <c r="F13">
-        <v>25.99952967222847</v>
+        <v>22.85966800527979</v>
       </c>
       <c r="G13">
-        <v>26.06096996876369</v>
+        <v>33.15592440308068</v>
       </c>
       <c r="H13">
-        <v>12.80121176535435</v>
+        <v>8.954623674267594</v>
       </c>
       <c r="I13">
-        <v>27.85754843311305</v>
+        <v>41.77191393165053</v>
       </c>
       <c r="J13">
-        <v>9.278617254501647</v>
+        <v>4.1106451792893</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>30.98848104427516</v>
+        <v>47.31104014057903</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.26317286720039</v>
+        <v>17.11786268851272</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.24704006978876</v>
+        <v>19.13525519784936</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.651580213790592</v>
+        <v>4.145625386791414</v>
       </c>
       <c r="E14">
-        <v>12.9072685679988</v>
+        <v>4.712187189292582</v>
       </c>
       <c r="F14">
-        <v>25.99347148463165</v>
+        <v>22.68606044751513</v>
       </c>
       <c r="G14">
-        <v>25.9981401453579</v>
+        <v>32.83261173395491</v>
       </c>
       <c r="H14">
-        <v>12.80350435748751</v>
+        <v>8.912248900187794</v>
       </c>
       <c r="I14">
-        <v>27.70718328464474</v>
+        <v>41.42504565768433</v>
       </c>
       <c r="J14">
-        <v>9.289311178946265</v>
+        <v>4.13901073020516</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>30.78453907223427</v>
+        <v>46.90526784763576</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.25462974627964</v>
+        <v>16.99124201236367</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.19596156520551</v>
+        <v>19.03062015594587</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.658394777785427</v>
+        <v>4.162757892715454</v>
       </c>
       <c r="E15">
-        <v>12.92020444297663</v>
+        <v>4.750056927966582</v>
       </c>
       <c r="F15">
-        <v>25.98995097725521</v>
+        <v>22.57993584363884</v>
       </c>
       <c r="G15">
-        <v>25.95980492949553</v>
+        <v>32.6340153126356</v>
       </c>
       <c r="H15">
-        <v>12.80496907794584</v>
+        <v>8.886449235531076</v>
       </c>
       <c r="I15">
-        <v>27.61475657993344</v>
+        <v>41.21156692163229</v>
       </c>
       <c r="J15">
-        <v>9.295898745531332</v>
+        <v>4.156492070835281</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>30.65886591818147</v>
+        <v>46.65502757016851</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.24951771410526</v>
+        <v>16.91375981628402</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.89866272742029</v>
+        <v>18.42118306626137</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.698035032122952</v>
+        <v>4.262590149984949</v>
       </c>
       <c r="E16">
-        <v>12.99538332046924</v>
+        <v>4.969549656392239</v>
       </c>
       <c r="F16">
-        <v>25.97269179921721</v>
+        <v>21.97514028549644</v>
       </c>
       <c r="G16">
-        <v>25.74248735450391</v>
+        <v>31.4873309738335</v>
       </c>
       <c r="H16">
-        <v>12.81428808270753</v>
+        <v>8.740987273557057</v>
       </c>
       <c r="I16">
-        <v>27.08028510374492</v>
+        <v>39.97270685094148</v>
       </c>
       <c r="J16">
-        <v>9.334220630554608</v>
+        <v>4.258240580868041</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>29.92722592227451</v>
+        <v>45.19496141795932</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.22207830723065</v>
+        <v>16.47095770179339</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.71222255569353</v>
+        <v>18.03849925161263</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.722878966002881</v>
+        <v>4.325246816691843</v>
       </c>
       <c r="E17">
-        <v>13.04244043006747</v>
+        <v>5.106288019598323</v>
       </c>
       <c r="F17">
-        <v>25.96470316118587</v>
+        <v>21.60719875065108</v>
       </c>
       <c r="G17">
-        <v>25.61135570574974</v>
+        <v>30.77615321160116</v>
       </c>
       <c r="H17">
-        <v>12.82082935641123</v>
+        <v>8.653872193445402</v>
       </c>
       <c r="I17">
-        <v>26.74828088106421</v>
+        <v>39.19889957053716</v>
       </c>
       <c r="J17">
-        <v>9.358240204960957</v>
+        <v>4.32199702131528</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>29.46825790757741</v>
+        <v>44.27592515186817</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.20690362484181</v>
+        <v>16.2004527579699</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.60351212794432</v>
+        <v>17.81512938255647</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.737362044807362</v>
+        <v>4.361781890140441</v>
       </c>
       <c r="E18">
-        <v>13.069851534176</v>
+        <v>5.185661408888317</v>
       </c>
       <c r="F18">
-        <v>25.96106243874606</v>
+        <v>21.39673690976174</v>
       </c>
       <c r="G18">
-        <v>25.5367646324955</v>
+        <v>30.36425442127214</v>
       </c>
       <c r="H18">
-        <v>12.82489414160925</v>
+        <v>8.604542514794304</v>
       </c>
       <c r="I18">
-        <v>26.55587580389773</v>
+        <v>38.74876734177298</v>
       </c>
       <c r="J18">
-        <v>9.372243435303393</v>
+        <v>4.359136293535536</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>29.20058841996738</v>
+        <v>43.73870744870914</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.19878596097469</v>
+        <v>16.04530874411413</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.56645293568122</v>
+        <v>17.73893827762229</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.742299023265108</v>
+        <v>4.374235362957254</v>
       </c>
       <c r="E19">
-        <v>13.07919179573613</v>
+        <v>5.212657032722169</v>
       </c>
       <c r="F19">
-        <v>25.95999349822867</v>
+        <v>21.32568260003502</v>
       </c>
       <c r="G19">
-        <v>25.51165507198945</v>
+        <v>30.22430318354551</v>
       </c>
       <c r="H19">
-        <v>12.82632229552897</v>
+        <v>8.58797344303029</v>
       </c>
       <c r="I19">
-        <v>26.4904895024457</v>
+        <v>38.59549345451759</v>
       </c>
       <c r="J19">
-        <v>9.377016969330356</v>
+        <v>4.371789438873687</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>29.10933155943864</v>
+        <v>43.5553320992352</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.19614236974913</v>
+        <v>15.9928583717271</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.73222246210769</v>
+        <v>18.07957355369452</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.720214265002539</v>
+        <v>4.318525031148376</v>
       </c>
       <c r="E20">
-        <v>13.03739541847896</v>
+        <v>5.091656105757565</v>
       </c>
       <c r="F20">
-        <v>25.96545478744876</v>
+        <v>21.6462467076407</v>
       </c>
       <c r="G20">
-        <v>25.62522939697851</v>
+        <v>30.85215397604097</v>
       </c>
       <c r="H20">
-        <v>12.82010171508478</v>
+        <v>8.663065301257411</v>
       </c>
       <c r="I20">
-        <v>26.78377448402868</v>
+        <v>39.28179667592902</v>
       </c>
       <c r="J20">
-        <v>9.355663848858194</v>
+        <v>4.315161090558598</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>29.51749797626599</v>
+        <v>44.3746486429177</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.20845583823905</v>
+        <v>16.22920319273714</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.2714519360971</v>
+        <v>19.1852576976718</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.648322851575415</v>
+        <v>4.137440059426091</v>
       </c>
       <c r="E21">
-        <v>12.90108399097948</v>
+        <v>4.694073409310267</v>
       </c>
       <c r="F21">
-        <v>25.99521125852484</v>
+        <v>22.7370085255961</v>
       </c>
       <c r="G21">
-        <v>26.01656372176711</v>
+        <v>32.92769265136875</v>
       </c>
       <c r="H21">
-        <v>12.8028183690301</v>
+        <v>8.924662847797643</v>
       </c>
       <c r="I21">
-        <v>27.75141698525725</v>
+        <v>41.52714016460668</v>
       </c>
       <c r="J21">
-        <v>9.286162356986875</v>
+        <v>4.130656698490769</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>30.84459884260012</v>
+        <v>47.0248056126316</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.25711388493515</v>
+        <v>17.02841769767942</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.61041712741359</v>
+        <v>19.87931571897683</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.603055949783359</v>
+        <v>4.024034076107863</v>
       </c>
       <c r="E22">
-        <v>12.81505609028351</v>
+        <v>4.441726358448856</v>
       </c>
       <c r="F22">
-        <v>26.02317396376178</v>
+        <v>23.45960051006853</v>
       </c>
       <c r="G22">
-        <v>26.27911009383696</v>
+        <v>34.25916062568767</v>
       </c>
       <c r="H22">
-        <v>12.79422652993699</v>
+        <v>9.10261137999256</v>
       </c>
       <c r="I22">
-        <v>28.36952289460204</v>
+        <v>42.94934218038694</v>
       </c>
       <c r="J22">
-        <v>9.242406089882566</v>
+        <v>4.014779545372503</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>31.67834415120953</v>
+        <v>48.68095795179796</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.29432760401874</v>
+        <v>17.65542183031242</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.43074966401699</v>
+        <v>19.51147477601908</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.627058753611992</v>
+        <v>4.084079831527378</v>
       </c>
       <c r="E23">
-        <v>12.86069150447645</v>
+        <v>4.575658715040913</v>
       </c>
       <c r="F23">
-        <v>26.00747009557275</v>
+        <v>23.07307712000927</v>
       </c>
       <c r="G23">
-        <v>26.13839388128558</v>
+        <v>33.55079186919701</v>
       </c>
       <c r="H23">
-        <v>12.79856427399851</v>
+        <v>9.006994922703601</v>
       </c>
       <c r="I23">
-        <v>28.04100199104799</v>
+        <v>42.19442891542819</v>
       </c>
       <c r="J23">
-        <v>9.265607360980081</v>
+        <v>4.076164581124328</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>31.23646659794303</v>
+        <v>47.80394050857059</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.27397203543869</v>
+        <v>17.28180036447491</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.72318524601403</v>
+        <v>18.0610143318884</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.721418353351877</v>
+        <v>4.321562358069428</v>
       </c>
       <c r="E24">
-        <v>13.03967515486932</v>
+        <v>5.098268834404768</v>
       </c>
       <c r="F24">
-        <v>25.9651120118191</v>
+        <v>21.62858977667866</v>
       </c>
       <c r="G24">
-        <v>25.6189546076897</v>
+        <v>30.81780348053391</v>
       </c>
       <c r="H24">
-        <v>12.82042973449486</v>
+        <v>8.658906749529582</v>
       </c>
       <c r="I24">
-        <v>26.76773257959455</v>
+        <v>39.24433527512081</v>
       </c>
       <c r="J24">
-        <v>9.356828014858792</v>
+        <v>4.318250110098464</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>29.4952483763353</v>
+        <v>44.33004333195074</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.20775219318957</v>
+        <v>16.21620395397535</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.90385125002249</v>
+        <v>16.37158274260295</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.830601873805893</v>
+        <v>4.596547681746753</v>
       </c>
       <c r="E25">
-        <v>13.24594076963291</v>
+        <v>5.689575322775045</v>
       </c>
       <c r="F25">
-        <v>25.95586908022578</v>
+        <v>20.11584141802207</v>
       </c>
       <c r="G25">
-        <v>25.09081731789951</v>
+        <v>27.83736307543416</v>
       </c>
       <c r="H25">
-        <v>12.85556860590771</v>
+        <v>8.313087078097654</v>
       </c>
       <c r="I25">
-        <v>25.34014337090489</v>
+        <v>35.86938025689217</v>
       </c>
       <c r="J25">
-        <v>9.462408222972616</v>
+        <v>4.597123859168615</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>27.47693853303905</v>
+        <v>40.25319005445054</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.15966005196335</v>
+        <v>15.093407067238</v>
       </c>
     </row>
   </sheetData>
